--- a/FTP.xlsx
+++ b/FTP.xlsx
@@ -205,35 +205,20 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -242,13 +227,28 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,144 +573,144 @@
     <col min="18" max="18" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="180" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="6"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="6"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>45</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="S4" s="9"/>
@@ -718,673 +718,724 @@
       <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="6"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="6"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>46</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="11" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="13" t="s">
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="10" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="12" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="12" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="12" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>47</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="11" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="12" t="s">
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="12" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>48</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="11" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="12" t="s">
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="12" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>49</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="11" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="12" t="s">
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="12" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-    </row>
-    <row r="20" spans="1:21" ht="195" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="13" t="s">
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="12" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>50</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="11" t="s">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="12" t="s">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="12" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="11" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="T22:T25"/>
-    <mergeCell ref="U22:U25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="Q22:Q25"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="S22:S25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="R18:R21"/>
-    <mergeCell ref="S18:S21"/>
-    <mergeCell ref="T18:T21"/>
-    <mergeCell ref="U18:U21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="T4:T8"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="T9:T13"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="R9:R13"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
     <mergeCell ref="T16:T17"/>
     <mergeCell ref="U16:U17"/>
     <mergeCell ref="A18:A21"/>
@@ -1409,90 +1460,39 @@
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="T9:T13"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="N9:N13"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="R9:R13"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="R18:R21"/>
+    <mergeCell ref="S18:S21"/>
+    <mergeCell ref="T18:T21"/>
+    <mergeCell ref="U18:U21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="T22:T25"/>
+    <mergeCell ref="U22:U25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="Q22:Q25"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="S22:S25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
